--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_38.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_38.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_6</t>
+          <t>model_1_38_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997053078549463</v>
+        <v>0.945603976920629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8242549127293346</v>
+        <v>0.7126720189563156</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8139550576247645</v>
+        <v>0.7628349832975865</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997153952996923</v>
+        <v>0.9170269796788757</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001226663921132918</v>
+        <v>0.1746268560504725</v>
       </c>
       <c r="G2" t="n">
-        <v>1.175208207810658</v>
+        <v>1.921363532262818</v>
       </c>
       <c r="H2" t="n">
-        <v>0.665471971370647</v>
+        <v>0.8483255131267462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001935983261711505</v>
+        <v>0.2511867431635513</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06785061920891555</v>
+        <v>0.8768956285916669</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03502376223555827</v>
+        <v>0.4178837829474512</v>
       </c>
       <c r="L2" t="n">
-        <v>1.018860297283439</v>
+        <v>0.9259288196366012</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0355753514798507</v>
+        <v>0.4244650347983454</v>
       </c>
       <c r="N2" t="n">
-        <v>143.4069141073576</v>
+        <v>37.49020766536568</v>
       </c>
       <c r="O2" t="n">
-        <v>284.7420866505739</v>
+        <v>74.45479125359151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_5</t>
+          <t>model_1_38_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997014464483859</v>
+        <v>0.9456199554997718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8241327068283303</v>
+        <v>0.7126572261141779</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8143819354722837</v>
+        <v>0.7628144462809207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997158169932512</v>
+        <v>0.9171427978611002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00124273712902788</v>
+        <v>0.1745755602225442</v>
       </c>
       <c r="G3" t="n">
-        <v>1.17602539923338</v>
+        <v>1.921462452066307</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6639450540618708</v>
+        <v>0.8483989728445551</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001933114750859059</v>
+        <v>0.2508361232647036</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06832973189744948</v>
+        <v>0.8779340475480707</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03525247692046447</v>
+        <v>0.4178224027293704</v>
       </c>
       <c r="L3" t="n">
-        <v>1.019107427303304</v>
+        <v>0.925950577701817</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03580766819241336</v>
+        <v>0.4244026879031875</v>
       </c>
       <c r="N3" t="n">
-        <v>143.3808779397811</v>
+        <v>37.49079524238012</v>
       </c>
       <c r="O3" t="n">
-        <v>284.7160504829974</v>
+        <v>74.45537883060595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_4</t>
+          <t>model_1_38_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997240315923408</v>
+        <v>0.9456360714987476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8240016082161465</v>
+        <v>0.7126422974049016</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8145946075201428</v>
+        <v>0.7627939195296766</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998168669478594</v>
+        <v>0.9172596619715467</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001148725864363664</v>
+        <v>0.1745238232374868</v>
       </c>
       <c r="G4" t="n">
-        <v>1.176902056256705</v>
+        <v>1.921562280413978</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6631843384781125</v>
+        <v>0.8484723958435459</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001245736712103199</v>
+        <v>0.2504823369955988</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07031499428748944</v>
+        <v>0.8789804197615302</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03389285860419071</v>
+        <v>0.4177604854907735</v>
       </c>
       <c r="L4" t="n">
-        <v>1.017661978090189</v>
+        <v>0.9259725228919117</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03442663724677798</v>
+        <v>0.4243397955299772</v>
       </c>
       <c r="N4" t="n">
-        <v>143.5382037897246</v>
+        <v>37.49138804761425</v>
       </c>
       <c r="O4" t="n">
-        <v>284.873376332941</v>
+        <v>74.45597163584007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_3</t>
+          <t>model_1_38_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997124644057018</v>
+        <v>0.9456522150793614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8238472502781461</v>
+        <v>0.712627236859144</v>
       </c>
       <c r="D5" t="n">
-        <v>0.814928968498028</v>
+        <v>0.7627730372901944</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998600555535733</v>
+        <v>0.9173773925088957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001196874587556029</v>
+        <v>0.17447199770745</v>
       </c>
       <c r="G5" t="n">
-        <v>1.177934248498868</v>
+        <v>1.921662990352807</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6619883486475807</v>
+        <v>0.848547090403352</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009519523239036096</v>
+        <v>0.2501259277660305</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07289406495150806</v>
+        <v>0.88003694807681</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03459587529686204</v>
+        <v>0.417698453082424</v>
       </c>
       <c r="L5" t="n">
-        <v>1.018402278035083</v>
+        <v>0.9259945056399814</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03514072574960001</v>
+        <v>0.4242767861732059</v>
       </c>
       <c r="N5" t="n">
-        <v>143.4560832603921</v>
+        <v>37.49198204361429</v>
       </c>
       <c r="O5" t="n">
-        <v>284.7912558036085</v>
+        <v>74.45656563184011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_2</t>
+          <t>model_1_38_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997082875912711</v>
+        <v>0.9456684463246956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8237397211989458</v>
+        <v>0.7126119905237949</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8150143425402738</v>
+        <v>0.7627519888763055</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999859734671779</v>
+        <v>0.9174961717725685</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001214260689131707</v>
+        <v>0.1744198907484843</v>
       </c>
       <c r="G6" t="n">
-        <v>1.178653295946606</v>
+        <v>1.92176494266749</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6616829706487388</v>
+        <v>0.8486223793593755</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009541350769710139</v>
+        <v>0.2497663436954273</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0739340230948399</v>
+        <v>0.8811024381284031</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03484624354405662</v>
+        <v>0.4176360745295888</v>
       </c>
       <c r="L6" t="n">
-        <v>1.018669594158652</v>
+        <v>0.9260166077612876</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03539503704641148</v>
+        <v>0.4242134252205192</v>
       </c>
       <c r="N6" t="n">
-        <v>143.4272397474078</v>
+        <v>37.49257944310768</v>
       </c>
       <c r="O6" t="n">
-        <v>284.7624122906242</v>
+        <v>74.45716303133349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_1</t>
+          <t>model_1_38_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997042957057883</v>
+        <v>0.9456847341133457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8237161759087166</v>
+        <v>0.7125966175323496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8150960770417581</v>
+        <v>0.7627308352562938</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999862175862764</v>
+        <v>0.917615881382046</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00123087701902397</v>
+        <v>0.1743676022692355</v>
       </c>
       <c r="G7" t="n">
-        <v>1.178810743410785</v>
+        <v>1.92186774193207</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6613906110761679</v>
+        <v>0.8486980446315998</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0009375292202140819</v>
+        <v>0.2494039431607276</v>
       </c>
       <c r="J7" t="n">
-        <v>0.074517357998066</v>
+        <v>0.8821767233915282</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03508385695763751</v>
+        <v>0.4175734693071814</v>
       </c>
       <c r="L7" t="n">
-        <v>1.018925074829546</v>
+        <v>0.9260387868777474</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03563639263373</v>
+        <v>0.4241498340284411</v>
       </c>
       <c r="N7" t="n">
-        <v>143.4000566801633</v>
+        <v>37.49317910313778</v>
       </c>
       <c r="O7" t="n">
-        <v>284.7352292233797</v>
+        <v>74.4577626913636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_0</t>
+          <t>model_1_38_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997011783231391</v>
+        <v>0.9457011165515103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8237051015500267</v>
+        <v>0.7125811080268415</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8150388914305275</v>
+        <v>0.7627093989616578</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998677800109689</v>
+        <v>0.9177366327002832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001243853207525793</v>
+        <v>0.1743150099378634</v>
       </c>
       <c r="G8" t="n">
-        <v>1.178884797698337</v>
+        <v>1.921971454066818</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6615951606917276</v>
+        <v>0.8487747210145647</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000899407793867247</v>
+        <v>0.2490383890294771</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07500412491694089</v>
+        <v>0.8832589161999068</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03526830315631577</v>
+        <v>0.417510490811744</v>
       </c>
       <c r="L8" t="n">
-        <v>1.019124587319098</v>
+        <v>0.9260610948786524</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03582374367565889</v>
+        <v>0.424085863684656</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3790825840179</v>
+        <v>37.49378242925649</v>
       </c>
       <c r="O8" t="n">
-        <v>284.7142551272343</v>
+        <v>74.45836601748231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_8</t>
+          <t>model_1_38_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996167510748636</v>
+        <v>0.9457175329532268</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8236825823612851</v>
+        <v>0.712565421525291</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8126329515349202</v>
+        <v>0.7626877550291489</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9993505709676789</v>
+        <v>0.9178582182128576</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001595283882412666</v>
+        <v>0.1742623085737355</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179035383617143</v>
+        <v>1.922076349774915</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6702010681939046</v>
+        <v>0.8488521401061621</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004417649233776239</v>
+        <v>0.2486703095163866</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07103551995304813</v>
+        <v>0.8843531431025696</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03994100502506998</v>
+        <v>0.4174473722204219</v>
       </c>
       <c r="L9" t="n">
-        <v>1.024527931208731</v>
+        <v>0.9260834491277982</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04057003592785778</v>
+        <v>0.4240217510386161</v>
       </c>
       <c r="N9" t="n">
-        <v>142.881407151757</v>
+        <v>37.49438718879454</v>
       </c>
       <c r="O9" t="n">
-        <v>284.2165796949734</v>
+        <v>74.45897077702035</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_7</t>
+          <t>model_1_38_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996349781756328</v>
+        <v>0.945734033382488</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8236685725062983</v>
+        <v>0.7125496034452979</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8129006040855551</v>
+        <v>0.762665867800976</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994187169078685</v>
+        <v>0.9179809437085255</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001519413088855077</v>
+        <v>0.1742093374570575</v>
       </c>
       <c r="G10" t="n">
-        <v>1.179129067581949</v>
+        <v>1.922182125348664</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6692436905396699</v>
+        <v>0.848930429452242</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003954096104056357</v>
+        <v>0.248298778897872</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07121429492345084</v>
+        <v>0.8854559004708342</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03897964967588956</v>
+        <v>0.4173839209373757</v>
       </c>
       <c r="L10" t="n">
-        <v>1.023361396759498</v>
+        <v>0.9261059177974305</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03959354019293055</v>
+        <v>0.4239573004612898</v>
       </c>
       <c r="N10" t="n">
-        <v>142.9788622888859</v>
+        <v>37.49499522813076</v>
       </c>
       <c r="O10" t="n">
-        <v>284.3140348321023</v>
+        <v>74.45957881635658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_9</t>
+          <t>model_1_38_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996109205015081</v>
+        <v>0.9457505873706457</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8235894300263851</v>
+        <v>0.7125336128580302</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8127473753938421</v>
+        <v>0.7626438765488858</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993194468273169</v>
+        <v>0.9181045329796441</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001619553799662845</v>
+        <v>0.17415619440094</v>
       </c>
       <c r="G11" t="n">
-        <v>1.179658293709547</v>
+        <v>1.922289054479354</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6697917806852174</v>
+        <v>0.8490090908858428</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004629366801022869</v>
+        <v>0.247924633345714</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07035901885221303</v>
+        <v>0.8865699428945455</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04024368024501294</v>
+        <v>0.4173202540027742</v>
       </c>
       <c r="L11" t="n">
-        <v>1.02490108790348</v>
+        <v>0.926128459398326</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04087747797995062</v>
+        <v>0.423892630836112</v>
       </c>
       <c r="N11" t="n">
-        <v>142.8512091999663</v>
+        <v>37.49560542692105</v>
       </c>
       <c r="O11" t="n">
-        <v>284.1863817431828</v>
+        <v>74.46018901514687</v>
       </c>
     </row>
   </sheetData>
